--- a/pred_ohlcv/54_21/2020-01-23 DAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 DAC ohlcv.xlsx
@@ -3148,7 +3148,7 @@
         <v>-784793.4270000003</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-740660.1333000002</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-776519.9760000003</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-776519.9760000003</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-802599.8523304806</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-760921.6729304806</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-760921.6729304806</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-807524.2174304805</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-805952.9593304805</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-805952.9593304805</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-805952.9593304805</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-805952.9593304805</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-805952.9593304805</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-805952.9593304805</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-763099.6466304805</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-763099.6466304805</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-763099.6466304805</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-785946.5433304806</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-785946.5433304806</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-785946.5433304806</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-748813.9973304806</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-748813.9973304806</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-789313.0893304806</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-744148.2284304806</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-744148.2284304806</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-774767.3428304805</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-731299.0451304805</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-773945.6507304806</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-773945.6507304806</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-773945.6507304806</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-773945.6507304806</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-732882.3720304805</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-764924.5666304806</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-764924.5666304806</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-726215.9039304806</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-769522.8071304807</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-720752.8555304806</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-776400.3011304806</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-759570.6635304806</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>2974565.018269519</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>2710914.206756924</v>
       </c>
       <c r="H796">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>2870133.659256924</v>
       </c>
       <c r="H800">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>2821136.602956925</v>
       </c>
       <c r="H801">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>2251743.650356924</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>2232351.884056924</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>2295762.265256925</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>2337805.595656924</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>2295656.025156925</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>2245181.922856925</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>2206358.215456924</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>2159015.685456925</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>2112587.097756925</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>2091979.240956924</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>1553535.141380501</v>
       </c>
       <c r="H1050">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>1553535.141380501</v>
       </c>
       <c r="H1051">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27744,7 +27744,7 @@
         <v>1553535.141380501</v>
       </c>
       <c r="H1052">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>1553535.141380501</v>
       </c>
       <c r="H1053">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -27796,7 +27796,7 @@
         <v>1553535.141380501</v>
       </c>
       <c r="H1054">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1055" spans="1:8">
@@ -27822,7 +27822,7 @@
         <v>1553535.141380501</v>
       </c>
       <c r="H1055">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1056" spans="1:8">
@@ -27848,7 +27848,7 @@
         <v>1553535.141380501</v>
       </c>
       <c r="H1056">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1057" spans="1:8">
@@ -27874,7 +27874,7 @@
         <v>1553535.141380501</v>
       </c>
       <c r="H1057">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1058" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>1506437.387980501</v>
       </c>
       <c r="H1058">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1059" spans="1:8">
@@ -27926,7 +27926,7 @@
         <v>1456278.996780501</v>
       </c>
       <c r="H1059">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1060" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>1500678.056380501</v>
       </c>
       <c r="H1063">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>1529865.970180501</v>
       </c>
       <c r="H1064">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>1488645.794080501</v>
       </c>
       <c r="H1065">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>1418312.082980501</v>
       </c>
       <c r="H1066">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28446,7 +28446,7 @@
         <v>1526142.842580501</v>
       </c>
       <c r="H1079">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1080" spans="1:8">
@@ -28472,7 +28472,7 @@
         <v>1484931.449680501</v>
       </c>
       <c r="H1080">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1081" spans="1:8">
@@ -28498,7 +28498,7 @@
         <v>1440204.903080501</v>
       </c>
       <c r="H1081">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1082" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>1406080.332680501</v>
       </c>
       <c r="H1082">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>1448776.580080501</v>
       </c>
       <c r="H1083">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -28576,7 +28576,7 @@
         <v>1504398.8975805</v>
       </c>
       <c r="H1084">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1085" spans="1:8">
@@ -28602,7 +28602,7 @@
         <v>1463062.8500805</v>
       </c>
       <c r="H1085">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1086" spans="1:8">
@@ -28628,7 +28628,7 @@
         <v>1463062.8500805</v>
       </c>
       <c r="H1086">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1087" spans="1:8">
@@ -28654,7 +28654,7 @@
         <v>1463062.8500805</v>
       </c>
       <c r="H1087">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1088" spans="1:8">
@@ -28680,7 +28680,7 @@
         <v>1427590.4040805</v>
       </c>
       <c r="H1088">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1089" spans="1:8">
@@ -28784,7 +28784,7 @@
         <v>1501622.3315805</v>
       </c>
       <c r="H1092">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1093" spans="1:8">
@@ -28810,7 +28810,7 @@
         <v>1530133.6134805</v>
       </c>
       <c r="H1093">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1094" spans="1:8">
@@ -28836,7 +28836,7 @@
         <v>1492946.2540805</v>
       </c>
       <c r="H1094">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1095" spans="1:8">
@@ -28914,7 +28914,7 @@
         <v>1533386.9559805</v>
       </c>
       <c r="H1097">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1098" spans="1:8">
@@ -28940,7 +28940,7 @@
         <v>1510836.349980501</v>
       </c>
       <c r="H1098">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1099" spans="1:8">
@@ -28966,7 +28966,7 @@
         <v>1469734.471980501</v>
       </c>
       <c r="H1099">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1100" spans="1:8">
@@ -28992,7 +28992,7 @@
         <v>1430329.1604805</v>
       </c>
       <c r="H1100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1101" spans="1:8">
@@ -29096,7 +29096,7 @@
         <v>1610949.8688805</v>
       </c>
       <c r="H1104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1105" spans="1:8">
@@ -29122,7 +29122,7 @@
         <v>1560035.7702805</v>
       </c>
       <c r="H1105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1106" spans="1:8">
@@ -29148,7 +29148,7 @@
         <v>1594612.6651805</v>
       </c>
       <c r="H1106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1107" spans="1:8">
@@ -29174,7 +29174,7 @@
         <v>1594612.6651805</v>
       </c>
       <c r="H1107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1108" spans="1:8">
@@ -29200,7 +29200,7 @@
         <v>1594612.6651805</v>
       </c>
       <c r="H1108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1109" spans="1:8">
@@ -29226,7 +29226,7 @@
         <v>1557097.7195805</v>
       </c>
       <c r="H1109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1110" spans="1:8">
@@ -29252,7 +29252,7 @@
         <v>1557097.7195805</v>
       </c>
       <c r="H1110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1111" spans="1:8">
@@ -29278,7 +29278,7 @@
         <v>1521308.1224805</v>
       </c>
       <c r="H1111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1112" spans="1:8">
@@ -29304,7 +29304,7 @@
         <v>1521308.1224805</v>
       </c>
       <c r="H1112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1113" spans="1:8">
@@ -29330,7 +29330,7 @@
         <v>1490195.451280501</v>
       </c>
       <c r="H1113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1114" spans="1:8">
@@ -29356,7 +29356,7 @@
         <v>1534899.545280501</v>
       </c>
       <c r="H1114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1115" spans="1:8">
@@ -29382,7 +29382,7 @@
         <v>1486094.157080501</v>
       </c>
       <c r="H1115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1116" spans="1:8">
@@ -29408,7 +29408,7 @@
         <v>1486094.157080501</v>
       </c>
       <c r="H1116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1117" spans="1:8">
@@ -29460,7 +29460,7 @@
         <v>1550573.234380501</v>
       </c>
       <c r="H1118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1119" spans="1:8">
@@ -29486,7 +29486,7 @@
         <v>1514233.409980501</v>
       </c>
       <c r="H1119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1120" spans="1:8">
@@ -29512,7 +29512,7 @@
         <v>1379431.763080501</v>
       </c>
       <c r="H1120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1121" spans="1:8">
@@ -29538,7 +29538,7 @@
         <v>1379431.763080501</v>
       </c>
       <c r="H1121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1122" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-23 DAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 DAC ohlcv.xlsx
@@ -3148,7 +3148,7 @@
         <v>-784793.4270000003</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-740660.1333000002</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-776519.9760000003</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-776519.9760000003</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-739136.2120000003</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-767708.0970000003</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-760921.6729304806</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-807524.2174304805</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-805952.9593304805</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-805952.9593304805</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-805952.9593304805</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-805952.9593304805</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-805952.9593304805</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-805952.9593304805</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-763099.6466304805</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-763099.6466304805</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-763099.6466304805</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-785946.5433304806</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-785946.5433304806</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-785946.5433304806</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-748813.9973304806</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-748813.9973304806</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-789313.0893304806</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-744148.2284304806</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-744148.2284304806</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-774767.3428304805</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-731299.0451304805</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-773945.6507304806</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-773945.6507304806</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-773945.6507304806</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-773945.6507304806</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-732882.3720304805</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-238798.9979304808</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-238798.9979304808</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>2974565.018269519</v>
       </c>
       <c r="H787">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>2710914.206756924</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>2870133.659256924</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>2776080.427056924</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>2251743.650356924</v>
       </c>
       <c r="H810">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>2232351.884056924</v>
       </c>
       <c r="H811">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>2295762.265256925</v>
       </c>
       <c r="H812">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>2337805.595656924</v>
       </c>
       <c r="H813">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>2295656.025156925</v>
       </c>
       <c r="H814">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>2245181.922856925</v>
       </c>
       <c r="H815">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>2206358.215456924</v>
       </c>
       <c r="H816">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>2159015.685456925</v>
       </c>
       <c r="H817">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>2112587.097756925</v>
       </c>
       <c r="H821">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>2091979.240956924</v>
       </c>
       <c r="H828">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
